--- a/dados_cnpj.xlsx
+++ b/dados_cnpj.xlsx
@@ -441,102 +441,102 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fantasia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CNPJ</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Atividade Principal - Código</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Atividade Secundária - Código</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Atividade Principal - Texto</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Atividade Secundária - Texto</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Natureza Jurídica</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Logradouro</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Número</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Bairro</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>UF</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Telefone</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Situação</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Capital Social</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Última Atualização</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>FANTASIA</t>
         </is>
       </c>
     </row>
@@ -548,102 +548,102 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>POSTO AZUL 5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>00191498001350</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>FILIAL</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>47.31-8-00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>45.20-0-05</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Comércio varejista de combustíveis para veículos automotores</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Serviços de lavagem, lubrificação e polimento de veículos automotores</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>206-2 - Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>RUA ANTONIO MACARIO</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>50.770-070</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>AFOGADOS</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>(81) 3090-7379</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>gerencia.azul5@redeazul.com</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>ATIVA</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>369000.00</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>2023-10-14T23:59:59.000Z</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>POSTO AZUL 5</t>
         </is>
       </c>
     </row>
@@ -655,102 +655,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EMPORIO DO ACO GUARARAPES</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>17660814000155</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>MATRIZ</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>47.83-1-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>74.20-0-01</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comércio varejista de artigos de joalheria</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Atividades de produção de fotografias, exceto aérea e submarina</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>213-5 - Empresário (Individual)</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>AVENIDA BARRETO DE MENEZES</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>54.325-192</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>GUARARAPES</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>JABOATAO DOS GUARARAPES</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>(81) 9691-9234</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>emporiodoacoguararapes@outlook.com</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>ATIVA</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>2023-10-14T23:59:59.000Z</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>EMPORIO DO ACO GUARARAPES</t>
         </is>
       </c>
     </row>
@@ -760,102 +760,102 @@
           <t>AAC COSTA SERVICOS E ASSESSORIA LTDA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>27826790000115</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>MATRIZ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>82.11-3-00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>82.91-1-00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Serviços combinados de escritório e apoio administrativo</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Atividades de cobrança e informações cadastrais</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>206-2 - Sociedade Empresária Limitada</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>RUA DA AURORA</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>1231</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>50.040-090</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>SANTO AMARO</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>(81) 9670-6862 / (81) 8802-4423 / (81) 3222-3567</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>accosta@becadvogados.com.br</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>ATIVA</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>93700.00</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>2023-10-14T23:59:59.000Z</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
